--- a/biology/Botanique/Chat-Brûlé/Chat-Brûlé.xlsx
+++ b/biology/Botanique/Chat-Brûlé/Chat-Brûlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chat-Br%C3%BBl%C3%A9</t>
+          <t>Chat-Brûlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chat-Brûlé est une variété de poire de table.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chat-Br%C3%BBl%C3%A9</t>
+          <t>Chat-Brûlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chat-Rôti.
 Rougeaude.
 Pucelle.
 Pucelle de Saintonge.
 Kamper-Vénus.
-Chat[1],[2].</t>
+Chat,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chat-Br%C3%BBl%C3%A9</t>
+          <t>Chat-Brûlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hollandais l'appellent poire de Vénus et disent que les Romains la connaissaient déjà[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hollandais l'appellent poire de Vénus et disent que les Romains la connaissaient déjà.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chat-Br%C3%BBl%C3%A9</t>
+          <t>Chat-Brûlé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux : bois assez faible, rameaux peu nombreux et réfléchis.
 Yeux : à écailles entr'ouvertes, gros, arrondis.
-Culture : fertilité exceptionnelle, vigueur chétive[4].
+Culture : fertilité exceptionnelle, vigueur chétive.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chat-Br%C3%BBl%C3%A9</t>
+          <t>Chat-Brûlé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit : taille au-dessous de la moyenne, de forme turbinée[Note 1],  obtuse.
 Épiderme : d'un vert fauve qui tourne au brun jaunâtre.
@@ -618,7 +638,7 @@
 Œil : grand, régulier, très ouvert, à peine enfoncé.
 Chair : blanchâtre, demi-cassante, devenant tendre à l'entière maturité, un peu pierreuse vers le cœur.
 Qualité : peu juteuse, assez sucrée mais sans parfum agréable.
-Maturité : novembre[4].
+Maturité : novembre.
 </t>
         </is>
       </c>
